--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Omg-Tnfrsf1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Omg-Tnfrsf1b.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.001858</v>
+        <v>1.535573</v>
       </c>
       <c r="H2">
-        <v>6.003716000000001</v>
+        <v>3.071146</v>
       </c>
       <c r="I2">
-        <v>0.1699513786981177</v>
+        <v>0.07799861199039625</v>
       </c>
       <c r="J2">
-        <v>0.1289067695015173</v>
+        <v>0.05613057672622927</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.1514815</v>
+        <v>14.917587</v>
       </c>
       <c r="N2">
-        <v>36.302963</v>
+        <v>29.835174</v>
       </c>
       <c r="O2">
-        <v>0.08425468074010373</v>
+        <v>0.03881912675247488</v>
       </c>
       <c r="P2">
-        <v>0.05797873581900371</v>
+        <v>0.02626688714606001</v>
       </c>
       <c r="Q2">
-        <v>54.488169952627</v>
+        <v>22.907043822351</v>
       </c>
       <c r="R2">
-        <v>217.952679810508</v>
+        <v>91.62817528940401</v>
       </c>
       <c r="S2">
-        <v>0.01431919915355037</v>
+        <v>0.003027838005372299</v>
       </c>
       <c r="T2">
-        <v>0.007473851534209677</v>
+        <v>0.001474375524311127</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.001858</v>
+        <v>1.535573</v>
       </c>
       <c r="H3">
-        <v>6.003716000000001</v>
+        <v>3.071146</v>
       </c>
       <c r="I3">
-        <v>0.1699513786981177</v>
+        <v>0.07799861199039625</v>
       </c>
       <c r="J3">
-        <v>0.1289067695015173</v>
+        <v>0.05613057672622927</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>25.62246</v>
       </c>
       <c r="O3">
-        <v>0.03964437075611116</v>
+        <v>0.02222525493902415</v>
       </c>
       <c r="P3">
-        <v>0.04092111818456774</v>
+        <v>0.02255801374660784</v>
       </c>
       <c r="Q3">
-        <v>25.63832884356</v>
+        <v>13.11505258986</v>
       </c>
       <c r="R3">
-        <v>153.82997306136</v>
+        <v>78.69031553916001</v>
       </c>
       <c r="S3">
-        <v>0.00673761546762043</v>
+        <v>0.001733539036376582</v>
       </c>
       <c r="T3">
-        <v>0.005275009149562422</v>
+        <v>0.001266194321395306</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.001858</v>
+        <v>1.535573</v>
       </c>
       <c r="H4">
-        <v>6.003716000000001</v>
+        <v>3.071146</v>
       </c>
       <c r="I4">
-        <v>0.1699513786981177</v>
+        <v>0.07799861199039625</v>
       </c>
       <c r="J4">
-        <v>0.1289067695015173</v>
+        <v>0.05613057672622927</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>79.03781233333332</v>
+        <v>90.98225666666667</v>
       </c>
       <c r="N4">
-        <v>237.113437</v>
+        <v>272.94677</v>
       </c>
       <c r="O4">
-        <v>0.3668739460490447</v>
+        <v>0.2367575770645437</v>
       </c>
       <c r="P4">
-        <v>0.3786891258148537</v>
+        <v>0.2403023359096749</v>
       </c>
       <c r="Q4">
-        <v>237.2602892553153</v>
+        <v>139.7098968164034</v>
       </c>
       <c r="R4">
-        <v>1423.561735531892</v>
+        <v>838.2593808984201</v>
       </c>
       <c r="S4">
-        <v>0.06235073293945398</v>
+        <v>0.01846676238924368</v>
       </c>
       <c r="T4">
-        <v>0.04881559185414643</v>
+        <v>0.01348830870327012</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.001858</v>
+        <v>1.535573</v>
       </c>
       <c r="H5">
-        <v>6.003716000000001</v>
+        <v>3.071146</v>
       </c>
       <c r="I5">
-        <v>0.1699513786981177</v>
+        <v>0.07799861199039625</v>
       </c>
       <c r="J5">
-        <v>0.1289067695015173</v>
+        <v>0.05613057672622927</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.013452</v>
+        <v>2.0884365</v>
       </c>
       <c r="N5">
-        <v>4.026904</v>
+        <v>4.176873000000001</v>
       </c>
       <c r="O5">
-        <v>0.009345945422996098</v>
+        <v>0.005434610919848834</v>
       </c>
       <c r="P5">
-        <v>0.006431287803821669</v>
+        <v>0.003677318983104476</v>
       </c>
       <c r="Q5">
-        <v>6.044096993816001</v>
+        <v>3.206946701614501</v>
       </c>
       <c r="R5">
-        <v>24.176387975264</v>
+        <v>12.827786806458</v>
       </c>
       <c r="S5">
-        <v>0.001588356309875549</v>
+        <v>0.0004238921084560596</v>
       </c>
       <c r="T5">
-        <v>0.0008290365345251593</v>
+        <v>0.0002064100353279652</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.001858</v>
+        <v>1.535573</v>
       </c>
       <c r="H6">
-        <v>6.003716000000001</v>
+        <v>3.071146</v>
       </c>
       <c r="I6">
-        <v>0.1699513786981177</v>
+        <v>0.07799861199039625</v>
       </c>
       <c r="J6">
-        <v>0.1289067695015173</v>
+        <v>0.05613057672622927</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.89644133333333</v>
+        <v>209.6152953333334</v>
       </c>
       <c r="N6">
-        <v>32.689324</v>
+        <v>628.8458860000001</v>
       </c>
       <c r="O6">
-        <v>0.05057858146417802</v>
+        <v>0.5454690975693403</v>
       </c>
       <c r="P6">
-        <v>0.05220746527763636</v>
+        <v>0.5536359171166931</v>
       </c>
       <c r="Q6">
-        <v>32.70956958799734</v>
+        <v>321.8795879008927</v>
       </c>
       <c r="R6">
-        <v>196.257417527984</v>
+        <v>1931.277527405356</v>
       </c>
       <c r="S6">
-        <v>0.008595899652432112</v>
+        <v>0.04254583249406256</v>
       </c>
       <c r="T6">
-        <v>0.006729895692802738</v>
+        <v>0.03107590332411485</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.001858</v>
+        <v>1.535573</v>
       </c>
       <c r="H7">
-        <v>6.003716000000001</v>
+        <v>3.071146</v>
       </c>
       <c r="I7">
-        <v>0.1699513786981177</v>
+        <v>0.07799861199039625</v>
       </c>
       <c r="J7">
-        <v>0.1289067695015173</v>
+        <v>0.05613057672622927</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>96.79587533333334</v>
+        <v>58.14006033333333</v>
       </c>
       <c r="N7">
-        <v>290.387626</v>
+        <v>174.420181</v>
       </c>
       <c r="O7">
-        <v>0.4493024755675664</v>
+        <v>0.1512943327547681</v>
       </c>
       <c r="P7">
-        <v>0.4637722671001167</v>
+        <v>0.1535595270978597</v>
       </c>
       <c r="Q7">
-        <v>290.5674727363694</v>
+        <v>89.27830686623767</v>
       </c>
       <c r="R7">
-        <v>1743.404836418216</v>
+        <v>535.669841197426</v>
       </c>
       <c r="S7">
-        <v>0.07635957517518523</v>
+        <v>0.01180074795688506</v>
       </c>
       <c r="T7">
-        <v>0.05978338473627086</v>
+        <v>0.008619384817809897</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>5.300461</v>
       </c>
       <c r="I8">
-        <v>0.1000292324160129</v>
+        <v>0.08974469701955506</v>
       </c>
       <c r="J8">
-        <v>0.113807066220118</v>
+        <v>0.09687521623683339</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.1514815</v>
+        <v>14.917587</v>
       </c>
       <c r="N8">
-        <v>36.302963</v>
+        <v>29.835174</v>
       </c>
       <c r="O8">
-        <v>0.08425468074010373</v>
+        <v>0.03881912675247488</v>
       </c>
       <c r="P8">
-        <v>0.05797873581900371</v>
+        <v>0.02626688714606001</v>
       </c>
       <c r="Q8">
-        <v>32.07040659432383</v>
+        <v>26.356696035869</v>
       </c>
       <c r="R8">
-        <v>192.422439565943</v>
+        <v>158.140176215214</v>
       </c>
       <c r="S8">
-        <v>0.008427931041888805</v>
+        <v>0.003483810768964562</v>
       </c>
       <c r="T8">
-        <v>0.006598389826712082</v>
+        <v>0.002544610372143063</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>5.300461</v>
       </c>
       <c r="I9">
-        <v>0.1000292324160129</v>
+        <v>0.08974469701955506</v>
       </c>
       <c r="J9">
-        <v>0.113807066220118</v>
+        <v>0.09687521623683339</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>25.62246</v>
       </c>
       <c r="O9">
-        <v>0.03964437075611116</v>
+        <v>0.02222525493902415</v>
       </c>
       <c r="P9">
-        <v>0.04092111818456774</v>
+        <v>0.02255801374660784</v>
       </c>
       <c r="Q9">
         <v>15.09009443934</v>
@@ -1013,10 +1013,10 @@
         <v>135.81084995406</v>
       </c>
       <c r="S9">
-        <v>0.00396559597634963</v>
+        <v>0.001994598770685092</v>
       </c>
       <c r="T9">
-        <v>0.004657112407032375</v>
+        <v>0.002185312459576094</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>5.300461</v>
       </c>
       <c r="I10">
-        <v>0.1000292324160129</v>
+        <v>0.08974469701955506</v>
       </c>
       <c r="J10">
-        <v>0.113807066220118</v>
+        <v>0.09687521623683339</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>79.03781233333332</v>
+        <v>90.98225666666667</v>
       </c>
       <c r="N10">
-        <v>237.113437</v>
+        <v>272.94677</v>
       </c>
       <c r="O10">
-        <v>0.3668739460490447</v>
+        <v>0.2367575770645437</v>
       </c>
       <c r="P10">
-        <v>0.3786891258148537</v>
+        <v>0.2403023359096749</v>
       </c>
       <c r="Q10">
-        <v>139.6456139327174</v>
+        <v>160.7493010512189</v>
       </c>
       <c r="R10">
-        <v>1256.810525394457</v>
+        <v>1446.74370946097</v>
       </c>
       <c r="S10">
-        <v>0.03669811921671969</v>
+        <v>0.02124773702074144</v>
       </c>
       <c r="T10">
-        <v>0.04309749841844965</v>
+        <v>0.02327934075346592</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>5.300461</v>
       </c>
       <c r="I11">
-        <v>0.1000292324160129</v>
+        <v>0.08974469701955506</v>
       </c>
       <c r="J11">
-        <v>0.113807066220118</v>
+        <v>0.09687521623683339</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.013452</v>
+        <v>2.0884365</v>
       </c>
       <c r="N11">
-        <v>4.026904</v>
+        <v>4.176873000000001</v>
       </c>
       <c r="O11">
-        <v>0.009345945422996098</v>
+        <v>0.005434610919848834</v>
       </c>
       <c r="P11">
-        <v>0.006431287803821669</v>
+        <v>0.003677318983104476</v>
       </c>
       <c r="Q11">
-        <v>3.557407933790667</v>
+        <v>3.689892073075501</v>
       </c>
       <c r="R11">
-        <v>21.344447602744</v>
+        <v>22.139352438453</v>
       </c>
       <c r="S11">
-        <v>0.0009348677468642491</v>
+        <v>0.000487727510420999</v>
       </c>
       <c r="T11">
-        <v>0.0007319259969701699</v>
+        <v>0.0003562410716600584</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>5.300461</v>
       </c>
       <c r="I12">
-        <v>0.1000292324160129</v>
+        <v>0.08974469701955506</v>
       </c>
       <c r="J12">
-        <v>0.113807066220118</v>
+        <v>0.09687521623683339</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.89644133333333</v>
+        <v>209.6152953333334</v>
       </c>
       <c r="N12">
-        <v>32.689324</v>
+        <v>628.8458860000001</v>
       </c>
       <c r="O12">
-        <v>0.05057858146417802</v>
+        <v>0.5454690975693403</v>
       </c>
       <c r="P12">
-        <v>0.05220746527763636</v>
+        <v>0.5536359171166931</v>
       </c>
       <c r="Q12">
-        <v>19.25205410870711</v>
+        <v>370.3525659726052</v>
       </c>
       <c r="R12">
-        <v>173.268486978364</v>
+        <v>3333.173093753447</v>
       </c>
       <c r="S12">
-        <v>0.005059336680552507</v>
+        <v>0.04895295889489056</v>
       </c>
       <c r="T12">
-        <v>0.005941578458036472</v>
+        <v>0.05363359918715721</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>5.300461</v>
       </c>
       <c r="I13">
-        <v>0.1000292324160129</v>
+        <v>0.08974469701955506</v>
       </c>
       <c r="J13">
-        <v>0.113807066220118</v>
+        <v>0.09687521623683339</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>96.79587533333334</v>
+        <v>58.14006033333333</v>
       </c>
       <c r="N13">
-        <v>290.387626</v>
+        <v>174.420181</v>
       </c>
       <c r="O13">
-        <v>0.4493024755675664</v>
+        <v>0.1512943327547681</v>
       </c>
       <c r="P13">
-        <v>0.4637722671001167</v>
+        <v>0.1535595270978597</v>
       </c>
       <c r="Q13">
-        <v>171.0209207217318</v>
+        <v>102.7230407781601</v>
       </c>
       <c r="R13">
-        <v>1539.188286495586</v>
+        <v>924.507367003441</v>
       </c>
       <c r="S13">
-        <v>0.04494338175363807</v>
+        <v>0.01357786405385241</v>
       </c>
       <c r="T13">
-        <v>0.05278056111291723</v>
+        <v>0.01487611239283104</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.723455</v>
+        <v>4.075004666666667</v>
       </c>
       <c r="H14">
-        <v>8.170365</v>
+        <v>12.225014</v>
       </c>
       <c r="I14">
-        <v>0.1541894826711596</v>
+        <v>0.2069876898424154</v>
       </c>
       <c r="J14">
-        <v>0.175427245025958</v>
+        <v>0.2234335607314751</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.1514815</v>
+        <v>14.917587</v>
       </c>
       <c r="N14">
-        <v>36.302963</v>
+        <v>29.835174</v>
       </c>
       <c r="O14">
-        <v>0.08425468074010373</v>
+        <v>0.03881912675247488</v>
       </c>
       <c r="P14">
-        <v>0.05797873581900371</v>
+        <v>0.02626688714606001</v>
       </c>
       <c r="Q14">
-        <v>49.4347430485825</v>
+        <v>60.789236640406</v>
       </c>
       <c r="R14">
-        <v>296.608458291495</v>
+        <v>364.735419842436</v>
       </c>
       <c r="S14">
-        <v>0.01299118563594031</v>
+        <v>0.008035081368194679</v>
       </c>
       <c r="T14">
-        <v>0.01017104989481565</v>
+        <v>0.005868904124376003</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.723455</v>
+        <v>4.075004666666667</v>
       </c>
       <c r="H15">
-        <v>8.170365</v>
+        <v>12.225014</v>
       </c>
       <c r="I15">
-        <v>0.1541894826711596</v>
+        <v>0.2069876898424154</v>
       </c>
       <c r="J15">
-        <v>0.175427245025958</v>
+        <v>0.2234335607314751</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>25.62246</v>
       </c>
       <c r="O15">
-        <v>0.03964437075611116</v>
+        <v>0.02222525493902415</v>
       </c>
       <c r="P15">
-        <v>0.04092111818456774</v>
+        <v>0.02255801374660784</v>
       </c>
       <c r="Q15">
-        <v>23.2605389331</v>
+        <v>34.80388135716</v>
       </c>
       <c r="R15">
-        <v>209.3448503979</v>
+        <v>313.23493221444</v>
       </c>
       <c r="S15">
-        <v>0.00611274501770843</v>
+        <v>0.004600354175987341</v>
       </c>
       <c r="T15">
-        <v>0.007178679026500351</v>
+        <v>0.005040217334434153</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.723455</v>
+        <v>4.075004666666667</v>
       </c>
       <c r="H16">
-        <v>8.170365</v>
+        <v>12.225014</v>
       </c>
       <c r="I16">
-        <v>0.1541894826711596</v>
+        <v>0.2069876898424154</v>
       </c>
       <c r="J16">
-        <v>0.175427245025958</v>
+        <v>0.2234335607314751</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>79.03781233333332</v>
+        <v>90.98225666666667</v>
       </c>
       <c r="N16">
-        <v>237.113437</v>
+        <v>272.94677</v>
       </c>
       <c r="O16">
-        <v>0.3668739460490447</v>
+        <v>0.2367575770645437</v>
       </c>
       <c r="P16">
-        <v>0.3786891258148537</v>
+        <v>0.2403023359096749</v>
       </c>
       <c r="Q16">
-        <v>215.2559251882783</v>
+        <v>370.7531205005311</v>
       </c>
       <c r="R16">
-        <v>1937.303326694505</v>
+        <v>3336.77808450478</v>
       </c>
       <c r="S16">
-        <v>0.05656810394682913</v>
+        <v>0.04900590392927753</v>
       </c>
       <c r="T16">
-        <v>0.06643239006298818</v>
+        <v>0.05369160656438968</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.723455</v>
+        <v>4.075004666666667</v>
       </c>
       <c r="H17">
-        <v>8.170365</v>
+        <v>12.225014</v>
       </c>
       <c r="I17">
-        <v>0.1541894826711596</v>
+        <v>0.2069876898424154</v>
       </c>
       <c r="J17">
-        <v>0.175427245025958</v>
+        <v>0.2234335607314751</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.013452</v>
+        <v>2.0884365</v>
       </c>
       <c r="N17">
-        <v>4.026904</v>
+        <v>4.176873000000001</v>
       </c>
       <c r="O17">
-        <v>0.009345945422996098</v>
+        <v>0.005434610919848834</v>
       </c>
       <c r="P17">
-        <v>0.006431287803821669</v>
+        <v>0.003677318983104476</v>
       </c>
       <c r="Q17">
-        <v>5.48354591666</v>
+        <v>8.510388483537001</v>
       </c>
       <c r="R17">
-        <v>32.90127549996</v>
+        <v>51.062330901222</v>
       </c>
       <c r="S17">
-        <v>0.001441046489844661</v>
+        <v>0.001124897559491874</v>
       </c>
       <c r="T17">
-        <v>0.001128223101393479</v>
+        <v>0.0008216364743404805</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.723455</v>
+        <v>4.075004666666667</v>
       </c>
       <c r="H18">
-        <v>8.170365</v>
+        <v>12.225014</v>
       </c>
       <c r="I18">
-        <v>0.1541894826711596</v>
+        <v>0.2069876898424154</v>
       </c>
       <c r="J18">
-        <v>0.175427245025958</v>
+        <v>0.2234335607314751</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.89644133333333</v>
+        <v>209.6152953333334</v>
       </c>
       <c r="N18">
-        <v>32.689324</v>
+        <v>628.8458860000001</v>
       </c>
       <c r="O18">
-        <v>0.05057858146417802</v>
+        <v>0.5454690975693403</v>
       </c>
       <c r="P18">
-        <v>0.05220746527763636</v>
+        <v>0.5536359171166931</v>
       </c>
       <c r="Q18">
-        <v>29.67596763147333</v>
+        <v>854.183306688045</v>
       </c>
       <c r="R18">
-        <v>267.08370868326</v>
+        <v>7687.649760192405</v>
       </c>
       <c r="S18">
-        <v>0.007798685310202713</v>
+        <v>0.1129053883863048</v>
       </c>
       <c r="T18">
-        <v>0.009158611803444109</v>
+        <v>0.1237008443102186</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.723455</v>
+        <v>4.075004666666667</v>
       </c>
       <c r="H19">
-        <v>8.170365</v>
+        <v>12.225014</v>
       </c>
       <c r="I19">
-        <v>0.1541894826711596</v>
+        <v>0.2069876898424154</v>
       </c>
       <c r="J19">
-        <v>0.175427245025958</v>
+        <v>0.2234335607314751</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>96.79587533333334</v>
+        <v>58.14006033333333</v>
       </c>
       <c r="N19">
-        <v>290.387626</v>
+        <v>174.420181</v>
       </c>
       <c r="O19">
-        <v>0.4493024755675664</v>
+        <v>0.1512943327547681</v>
       </c>
       <c r="P19">
-        <v>0.4637722671001167</v>
+        <v>0.1535595270978597</v>
       </c>
       <c r="Q19">
-        <v>263.6192106559433</v>
+        <v>236.9210171786149</v>
       </c>
       <c r="R19">
-        <v>2372.57289590349</v>
+        <v>2132.289154607534</v>
       </c>
       <c r="S19">
-        <v>0.06927771627063441</v>
+        <v>0.03131606442315913</v>
       </c>
       <c r="T19">
-        <v>0.08135829113681621</v>
+        <v>0.03431035192371624</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.413168</v>
+        <v>2.811664</v>
       </c>
       <c r="H20">
-        <v>6.826336</v>
+        <v>5.623328</v>
       </c>
       <c r="I20">
-        <v>0.1932378571299165</v>
+        <v>0.1428169741089258</v>
       </c>
       <c r="J20">
-        <v>0.1465693782470572</v>
+        <v>0.1027761766326815</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>18.1514815</v>
+        <v>14.917587</v>
       </c>
       <c r="N20">
-        <v>36.302963</v>
+        <v>29.835174</v>
       </c>
       <c r="O20">
-        <v>0.08425468074010373</v>
+        <v>0.03881912675247488</v>
       </c>
       <c r="P20">
-        <v>0.05797873581900371</v>
+        <v>0.02626688714606001</v>
       </c>
       <c r="Q20">
-        <v>61.95405580839199</v>
+        <v>41.943242334768</v>
       </c>
       <c r="R20">
-        <v>247.816223233568</v>
+        <v>167.772969339072</v>
       </c>
       <c r="S20">
-        <v>0.01628119395938289</v>
+        <v>0.005544030220339312</v>
       </c>
       <c r="T20">
-        <v>0.008497907260541761</v>
+        <v>0.002699610232914176</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.413168</v>
+        <v>2.811664</v>
       </c>
       <c r="H21">
-        <v>6.826336</v>
+        <v>5.623328</v>
       </c>
       <c r="I21">
-        <v>0.1932378571299165</v>
+        <v>0.1428169741089258</v>
       </c>
       <c r="J21">
-        <v>0.1465693782470572</v>
+        <v>0.1027761766326815</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>25.62246</v>
       </c>
       <c r="O21">
-        <v>0.03964437075611116</v>
+        <v>0.02222525493902415</v>
       </c>
       <c r="P21">
-        <v>0.04092111818456774</v>
+        <v>0.02255801374660784</v>
       </c>
       <c r="Q21">
-        <v>29.15125351776</v>
+        <v>24.01391612448</v>
       </c>
       <c r="R21">
-        <v>174.90752110656</v>
+        <v>144.08349674688</v>
       </c>
       <c r="S21">
-        <v>0.007660793252174847</v>
+        <v>0.003174143659190887</v>
       </c>
       <c r="T21">
-        <v>0.005997782849486441</v>
+        <v>0.002318426405303825</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.413168</v>
+        <v>2.811664</v>
       </c>
       <c r="H22">
-        <v>6.826336</v>
+        <v>5.623328</v>
       </c>
       <c r="I22">
-        <v>0.1932378571299165</v>
+        <v>0.1428169741089258</v>
       </c>
       <c r="J22">
-        <v>0.1465693782470572</v>
+        <v>0.1027761766326815</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>79.03781233333332</v>
+        <v>90.98225666666667</v>
       </c>
       <c r="N22">
-        <v>237.113437</v>
+        <v>272.94677</v>
       </c>
       <c r="O22">
-        <v>0.3668739460490447</v>
+        <v>0.2367575770645437</v>
       </c>
       <c r="P22">
-        <v>0.3786891258148537</v>
+        <v>0.2403023359096749</v>
       </c>
       <c r="Q22">
-        <v>269.7693318461386</v>
+        <v>255.8115357084267</v>
       </c>
       <c r="R22">
-        <v>1618.615991076832</v>
+        <v>1534.86921425056</v>
       </c>
       <c r="S22">
-        <v>0.07089393517131397</v>
+        <v>0.03381300075371894</v>
       </c>
       <c r="T22">
-        <v>0.05550422971960474</v>
+        <v>0.02469735532069871</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.413168</v>
+        <v>2.811664</v>
       </c>
       <c r="H23">
-        <v>6.826336</v>
+        <v>5.623328</v>
       </c>
       <c r="I23">
-        <v>0.1932378571299165</v>
+        <v>0.1428169741089258</v>
       </c>
       <c r="J23">
-        <v>0.1465693782470572</v>
+        <v>0.1027761766326815</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.013452</v>
+        <v>2.0884365</v>
       </c>
       <c r="N23">
-        <v>4.026904</v>
+        <v>4.176873000000001</v>
       </c>
       <c r="O23">
-        <v>0.009345945422996098</v>
+        <v>0.005434610919848834</v>
       </c>
       <c r="P23">
-        <v>0.006431287803821669</v>
+        <v>0.003677318983104476</v>
       </c>
       <c r="Q23">
-        <v>6.872249935936</v>
+        <v>5.871981723336001</v>
       </c>
       <c r="R23">
-        <v>27.488999743744</v>
+        <v>23.487926893344</v>
       </c>
       <c r="S23">
-        <v>0.001805990466392917</v>
+        <v>0.0007761546870321362</v>
       </c>
       <c r="T23">
-        <v>0.0009426298547340242</v>
+        <v>0.0003779407853422585</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.413168</v>
+        <v>2.811664</v>
       </c>
       <c r="H24">
-        <v>6.826336</v>
+        <v>5.623328</v>
       </c>
       <c r="I24">
-        <v>0.1932378571299165</v>
+        <v>0.1428169741089258</v>
       </c>
       <c r="J24">
-        <v>0.1465693782470572</v>
+        <v>0.1027761766326815</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.89644133333333</v>
+        <v>209.6152953333334</v>
       </c>
       <c r="N24">
-        <v>32.689324</v>
+        <v>628.8458860000001</v>
       </c>
       <c r="O24">
-        <v>0.05057858146417802</v>
+        <v>0.5454690975693403</v>
       </c>
       <c r="P24">
-        <v>0.05220746527763636</v>
+        <v>0.5536359171166931</v>
       </c>
       <c r="Q24">
-        <v>37.19138487281067</v>
+        <v>589.3677797381014</v>
       </c>
       <c r="R24">
-        <v>223.148309236864</v>
+        <v>3536.206678428608</v>
       </c>
       <c r="S24">
-        <v>0.009773696698808673</v>
+        <v>0.07790224598477957</v>
       </c>
       <c r="T24">
-        <v>0.00765201572559799</v>
+        <v>0.05690058280778188</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.413168</v>
+        <v>2.811664</v>
       </c>
       <c r="H25">
-        <v>6.826336</v>
+        <v>5.623328</v>
       </c>
       <c r="I25">
-        <v>0.1932378571299165</v>
+        <v>0.1428169741089258</v>
       </c>
       <c r="J25">
-        <v>0.1465693782470572</v>
+        <v>0.1027761766326815</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>96.79587533333334</v>
+        <v>58.14006033333333</v>
       </c>
       <c r="N25">
-        <v>290.387626</v>
+        <v>174.420181</v>
       </c>
       <c r="O25">
-        <v>0.4493024755675664</v>
+        <v>0.1512943327547681</v>
       </c>
       <c r="P25">
-        <v>0.4637722671001167</v>
+        <v>0.1535595270978597</v>
       </c>
       <c r="Q25">
-        <v>330.3805842197227</v>
+        <v>163.4703145970613</v>
       </c>
       <c r="R25">
-        <v>1982.283505318336</v>
+        <v>980.8218875823679</v>
       </c>
       <c r="S25">
-        <v>0.08682224758184316</v>
+        <v>0.02160739880386492</v>
       </c>
       <c r="T25">
-        <v>0.06797481283709227</v>
+        <v>0.01578226108064068</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.258577666666667</v>
+        <v>7.050357000000001</v>
       </c>
       <c r="H26">
-        <v>6.775733000000001</v>
+        <v>21.151071</v>
       </c>
       <c r="I26">
-        <v>0.127870268462658</v>
+        <v>0.3581191255881512</v>
       </c>
       <c r="J26">
-        <v>0.1454828729464925</v>
+        <v>0.3865728993696239</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>18.1514815</v>
+        <v>14.917587</v>
       </c>
       <c r="N26">
-        <v>36.302963</v>
+        <v>29.835174</v>
       </c>
       <c r="O26">
-        <v>0.08425468074010373</v>
+        <v>0.03881912675247488</v>
       </c>
       <c r="P26">
-        <v>0.05797873581900371</v>
+        <v>0.02626688714606001</v>
       </c>
       <c r="Q26">
-        <v>40.99653073281317</v>
+        <v>105.174313928559</v>
       </c>
       <c r="R26">
-        <v>245.979184396879</v>
+        <v>631.0458835713541</v>
       </c>
       <c r="S26">
-        <v>0.0107736686454726</v>
+        <v>0.01390187172869191</v>
       </c>
       <c r="T26">
-        <v>0.008434913056754373</v>
+        <v>0.01015406672146712</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.258577666666667</v>
+        <v>7.050357000000001</v>
       </c>
       <c r="H27">
-        <v>6.775733000000001</v>
+        <v>21.151071</v>
       </c>
       <c r="I27">
-        <v>0.127870268462658</v>
+        <v>0.3581191255881512</v>
       </c>
       <c r="J27">
-        <v>0.1454828729464925</v>
+        <v>0.3865728993696239</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>25.62246</v>
       </c>
       <c r="O27">
-        <v>0.03964437075611116</v>
+        <v>0.02222525493902415</v>
       </c>
       <c r="P27">
-        <v>0.04092111818456774</v>
+        <v>0.02255801374660784</v>
       </c>
       <c r="Q27">
-        <v>19.29010530702</v>
+        <v>60.21583007274</v>
       </c>
       <c r="R27">
-        <v>173.61094776318</v>
+        <v>541.94247065466</v>
       </c>
       <c r="S27">
-        <v>0.005069336331617083</v>
+        <v>0.007959288864737069</v>
       </c>
       <c r="T27">
-        <v>0.005953321837673874</v>
+        <v>0.008720316778046022</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.258577666666667</v>
+        <v>7.050357000000001</v>
       </c>
       <c r="H28">
-        <v>6.775733000000001</v>
+        <v>21.151071</v>
       </c>
       <c r="I28">
-        <v>0.127870268462658</v>
+        <v>0.3581191255881512</v>
       </c>
       <c r="J28">
-        <v>0.1454828729464925</v>
+        <v>0.3865728993696239</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>79.03781233333332</v>
+        <v>90.98225666666667</v>
       </c>
       <c r="N28">
-        <v>237.113437</v>
+        <v>272.94677</v>
       </c>
       <c r="O28">
-        <v>0.3668739460490447</v>
+        <v>0.2367575770645437</v>
       </c>
       <c r="P28">
-        <v>0.3786891258148537</v>
+        <v>0.2403023359096749</v>
       </c>
       <c r="Q28">
-        <v>178.5130377582579</v>
+        <v>641.4573901656302</v>
       </c>
       <c r="R28">
-        <v>1606.617339824321</v>
+        <v>5773.116511490671</v>
       </c>
       <c r="S28">
-        <v>0.04691226997324605</v>
+        <v>0.08478741647472372</v>
       </c>
       <c r="T28">
-        <v>0.05509278197714069</v>
+        <v>0.09289437071789629</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.258577666666667</v>
+        <v>7.050357000000001</v>
       </c>
       <c r="H29">
-        <v>6.775733000000001</v>
+        <v>21.151071</v>
       </c>
       <c r="I29">
-        <v>0.127870268462658</v>
+        <v>0.3581191255881512</v>
       </c>
       <c r="J29">
-        <v>0.1454828729464925</v>
+        <v>0.3865728993696239</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.013452</v>
+        <v>2.0884365</v>
       </c>
       <c r="N29">
-        <v>4.026904</v>
+        <v>4.176873000000001</v>
       </c>
       <c r="O29">
-        <v>0.009345945422996098</v>
+        <v>0.005434610919848834</v>
       </c>
       <c r="P29">
-        <v>0.006431287803821669</v>
+        <v>0.003677318983104476</v>
       </c>
       <c r="Q29">
-        <v>4.547537720105334</v>
+        <v>14.7242228968305</v>
       </c>
       <c r="R29">
-        <v>27.285226320632</v>
+        <v>88.34533738098301</v>
       </c>
       <c r="S29">
-        <v>0.001195068550275861</v>
+        <v>0.001946238110528083</v>
       </c>
       <c r="T29">
-        <v>0.0009356422264457149</v>
+        <v>0.001421551861205654</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.258577666666667</v>
+        <v>7.050357000000001</v>
       </c>
       <c r="H30">
-        <v>6.775733000000001</v>
+        <v>21.151071</v>
       </c>
       <c r="I30">
-        <v>0.127870268462658</v>
+        <v>0.3581191255881512</v>
       </c>
       <c r="J30">
-        <v>0.1454828729464925</v>
+        <v>0.3865728993696239</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>10.89644133333333</v>
+        <v>209.6152953333334</v>
       </c>
       <c r="N30">
-        <v>32.689324</v>
+        <v>628.8458860000001</v>
       </c>
       <c r="O30">
-        <v>0.05057858146417802</v>
+        <v>0.5454690975693403</v>
       </c>
       <c r="P30">
-        <v>0.05220746527763636</v>
+        <v>0.5536359171166931</v>
       </c>
       <c r="Q30">
-        <v>24.61045904161023</v>
+        <v>1477.862664760434</v>
       </c>
       <c r="R30">
-        <v>221.494131374492</v>
+        <v>13300.76398284391</v>
       </c>
       <c r="S30">
-        <v>0.006467496790284862</v>
+        <v>0.1953429162568901</v>
       </c>
       <c r="T30">
-        <v>0.007595292037844792</v>
+        <v>0.2140206416749608</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.258577666666667</v>
+        <v>7.050357000000001</v>
       </c>
       <c r="H31">
-        <v>6.775733000000001</v>
+        <v>21.151071</v>
       </c>
       <c r="I31">
-        <v>0.127870268462658</v>
+        <v>0.3581191255881512</v>
       </c>
       <c r="J31">
-        <v>0.1454828729464925</v>
+        <v>0.3865728993696239</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>96.79587533333334</v>
+        <v>58.14006033333333</v>
       </c>
       <c r="N31">
-        <v>290.387626</v>
+        <v>174.420181</v>
       </c>
       <c r="O31">
-        <v>0.4493024755675664</v>
+        <v>0.1512943327547681</v>
       </c>
       <c r="P31">
-        <v>0.4637722671001167</v>
+        <v>0.1535595270978597</v>
       </c>
       <c r="Q31">
-        <v>218.6210022533176</v>
+        <v>409.908181351539</v>
       </c>
       <c r="R31">
-        <v>1967.589020279858</v>
+        <v>3689.173632163851</v>
       </c>
       <c r="S31">
-        <v>0.05745242817176155</v>
+        <v>0.05418139415258034</v>
       </c>
       <c r="T31">
-        <v>0.06747092181063308</v>
+        <v>0.05936195161604795</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.499161</v>
+        <v>2.447764666666667</v>
       </c>
       <c r="H32">
-        <v>13.497483</v>
+        <v>7.343294</v>
       </c>
       <c r="I32">
-        <v>0.2547217806221352</v>
+        <v>0.1243329014505562</v>
       </c>
       <c r="J32">
-        <v>0.2898066680588569</v>
+        <v>0.1342115703031569</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>18.1514815</v>
+        <v>14.917587</v>
       </c>
       <c r="N32">
-        <v>36.302963</v>
+        <v>29.835174</v>
       </c>
       <c r="O32">
-        <v>0.08425468074010373</v>
+        <v>0.03881912675247488</v>
       </c>
       <c r="P32">
-        <v>0.05797873581900371</v>
+        <v>0.02626688714606001</v>
       </c>
       <c r="Q32">
-        <v>81.66643765702149</v>
+        <v>36.514742370526</v>
       </c>
       <c r="R32">
-        <v>489.998625942129</v>
+        <v>219.088454223156</v>
       </c>
       <c r="S32">
-        <v>0.02146150230386875</v>
+        <v>0.004826494660912109</v>
       </c>
       <c r="T32">
-        <v>0.01680262424597017</v>
+        <v>0.00352532017084852</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.499161</v>
+        <v>2.447764666666667</v>
       </c>
       <c r="H33">
-        <v>13.497483</v>
+        <v>7.343294</v>
       </c>
       <c r="I33">
-        <v>0.2547217806221352</v>
+        <v>0.1243329014505562</v>
       </c>
       <c r="J33">
-        <v>0.2898066680588569</v>
+        <v>0.1342115703031569</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>25.62246</v>
       </c>
       <c r="O33">
-        <v>0.03964437075611116</v>
+        <v>0.02222525493902415</v>
       </c>
       <c r="P33">
-        <v>0.04092111818456774</v>
+        <v>0.02255801374660784</v>
       </c>
       <c r="Q33">
-        <v>38.42652425202</v>
+        <v>20.90591742036</v>
       </c>
       <c r="R33">
-        <v>345.83871826818</v>
+        <v>188.15325678324</v>
       </c>
       <c r="S33">
-        <v>0.01009828471064074</v>
+        <v>0.002763330432047177</v>
       </c>
       <c r="T33">
-        <v>0.01185921291431228</v>
+        <v>0.003027546447852436</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.499161</v>
+        <v>2.447764666666667</v>
       </c>
       <c r="H34">
-        <v>13.497483</v>
+        <v>7.343294</v>
       </c>
       <c r="I34">
-        <v>0.2547217806221352</v>
+        <v>0.1243329014505562</v>
       </c>
       <c r="J34">
-        <v>0.2898066680588569</v>
+        <v>0.1342115703031569</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>79.03781233333332</v>
+        <v>90.98225666666667</v>
       </c>
       <c r="N34">
-        <v>237.113437</v>
+        <v>272.94677</v>
       </c>
       <c r="O34">
-        <v>0.3668739460490447</v>
+        <v>0.2367575770645437</v>
       </c>
       <c r="P34">
-        <v>0.3786891258148537</v>
+        <v>0.2403023359096749</v>
       </c>
       <c r="Q34">
-        <v>355.6038427754523</v>
+        <v>222.7031531622644</v>
       </c>
       <c r="R34">
-        <v>3200.43458497907</v>
+        <v>2004.32837846038</v>
       </c>
       <c r="S34">
-        <v>0.09345078480148183</v>
+        <v>0.02943675649683838</v>
       </c>
       <c r="T34">
-        <v>0.109746633782524</v>
+        <v>0.03225135384995415</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.499161</v>
+        <v>2.447764666666667</v>
       </c>
       <c r="H35">
-        <v>13.497483</v>
+        <v>7.343294</v>
       </c>
       <c r="I35">
-        <v>0.2547217806221352</v>
+        <v>0.1243329014505562</v>
       </c>
       <c r="J35">
-        <v>0.2898066680588569</v>
+        <v>0.1342115703031569</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.013452</v>
+        <v>2.0884365</v>
       </c>
       <c r="N35">
-        <v>4.026904</v>
+        <v>4.176873000000001</v>
       </c>
       <c r="O35">
-        <v>0.009345945422996098</v>
+        <v>0.005434610919848834</v>
       </c>
       <c r="P35">
-        <v>0.006431287803821669</v>
+        <v>0.003677318983104476</v>
       </c>
       <c r="Q35">
-        <v>9.058844713772</v>
+        <v>5.112001073277001</v>
       </c>
       <c r="R35">
-        <v>54.35306828263199</v>
+        <v>30.67200643966201</v>
       </c>
       <c r="S35">
-        <v>0.002380615859742861</v>
+        <v>0.0006757009439196816</v>
       </c>
       <c r="T35">
-        <v>0.001863830089753121</v>
+        <v>0.0004935387552280597</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.499161</v>
+        <v>2.447764666666667</v>
       </c>
       <c r="H36">
-        <v>13.497483</v>
+        <v>7.343294</v>
       </c>
       <c r="I36">
-        <v>0.2547217806221352</v>
+        <v>0.1243329014505562</v>
       </c>
       <c r="J36">
-        <v>0.2898066680588569</v>
+        <v>0.1342115703031569</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>10.89644133333333</v>
+        <v>209.6152953333334</v>
       </c>
       <c r="N36">
-        <v>32.689324</v>
+        <v>628.8458860000001</v>
       </c>
       <c r="O36">
-        <v>0.05057858146417802</v>
+        <v>0.5454690975693403</v>
       </c>
       <c r="P36">
-        <v>0.05220746527763636</v>
+        <v>0.5536359171166931</v>
       </c>
       <c r="Q36">
-        <v>49.02484388572133</v>
+        <v>513.0889135098316</v>
       </c>
       <c r="R36">
-        <v>441.2235949714919</v>
+        <v>4617.800221588484</v>
       </c>
       <c r="S36">
-        <v>0.01288346633189715</v>
+        <v>0.06781975555241261</v>
       </c>
       <c r="T36">
-        <v>0.01513007155991026</v>
+        <v>0.07430434581245979</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.499161</v>
+        <v>2.447764666666667</v>
       </c>
       <c r="H37">
-        <v>13.497483</v>
+        <v>7.343294</v>
       </c>
       <c r="I37">
-        <v>0.2547217806221352</v>
+        <v>0.1243329014505562</v>
       </c>
       <c r="J37">
-        <v>0.2898066680588569</v>
+        <v>0.1342115703031569</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>96.79587533333334</v>
+        <v>58.14006033333333</v>
       </c>
       <c r="N37">
-        <v>290.387626</v>
+        <v>174.420181</v>
       </c>
       <c r="O37">
-        <v>0.4493024755675664</v>
+        <v>0.1512943327547681</v>
       </c>
       <c r="P37">
-        <v>0.4637722671001167</v>
+        <v>0.1535595270978597</v>
       </c>
       <c r="Q37">
-        <v>435.5002272605954</v>
+        <v>142.3131854018015</v>
       </c>
       <c r="R37">
-        <v>3919.502045345358</v>
+        <v>1280.818668616214</v>
       </c>
       <c r="S37">
-        <v>0.1144471266145039</v>
+        <v>0.01881086336442624</v>
       </c>
       <c r="T37">
-        <v>0.134404295466387</v>
+        <v>0.02060946526681392</v>
       </c>
     </row>
   </sheetData>
